--- a/data/pca/factorExposure/factorExposure_2015-06-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0178538222818607</v>
+        <v>0.006849697187717805</v>
       </c>
       <c r="C2">
-        <v>-0.02019242094530556</v>
+        <v>0.04837919067591897</v>
       </c>
       <c r="D2">
-        <v>-0.1071258003389111</v>
+        <v>-0.1335776313402741</v>
       </c>
       <c r="E2">
-        <v>0.004214001852394211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.01038448467442849</v>
+      </c>
+      <c r="F2">
+        <v>-0.02060585613851864</v>
+      </c>
+      <c r="G2">
+        <v>0.1290655457020571</v>
+      </c>
+      <c r="H2">
+        <v>0.05253898967950975</v>
+      </c>
+      <c r="I2">
+        <v>-0.04179653936836738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.006585217526600811</v>
+        <v>-0.005647755490328817</v>
       </c>
       <c r="C3">
-        <v>-0.006902149698232036</v>
+        <v>0.0008437187034120239</v>
       </c>
       <c r="D3">
-        <v>0.01064878524811393</v>
+        <v>0.002502206461044082</v>
       </c>
       <c r="E3">
-        <v>-0.002205044351441256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.006463755320461808</v>
+      </c>
+      <c r="F3">
+        <v>0.002843123832078538</v>
+      </c>
+      <c r="G3">
+        <v>0.001291807763850257</v>
+      </c>
+      <c r="H3">
+        <v>-0.0160624184072839</v>
+      </c>
+      <c r="I3">
+        <v>-0.00333215788104598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04499227473071233</v>
+        <v>0.01729035572008379</v>
       </c>
       <c r="C4">
-        <v>-0.06926024225537586</v>
+        <v>0.1009045395354551</v>
       </c>
       <c r="D4">
-        <v>-0.1337889633549406</v>
+        <v>-0.1390610622821964</v>
       </c>
       <c r="E4">
-        <v>0.07843750724786862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0118123720679067</v>
+      </c>
+      <c r="F4">
+        <v>-0.08671642729443506</v>
+      </c>
+      <c r="G4">
+        <v>0.006902031997077815</v>
+      </c>
+      <c r="H4">
+        <v>0.05522010232893079</v>
+      </c>
+      <c r="I4">
+        <v>0.05662522630614736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02262756067510444</v>
+        <v>0.02542167749480635</v>
       </c>
       <c r="C6">
-        <v>-0.01225410503572382</v>
+        <v>0.03174409597180931</v>
       </c>
       <c r="D6">
-        <v>-0.1381379769061528</v>
+        <v>-0.1270342230450406</v>
       </c>
       <c r="E6">
-        <v>0.03462560682494092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04899144645010814</v>
+      </c>
+      <c r="F6">
+        <v>-0.05160129145902605</v>
+      </c>
+      <c r="G6">
+        <v>0.006126074841351853</v>
+      </c>
+      <c r="H6">
+        <v>0.0655351015588231</v>
+      </c>
+      <c r="I6">
+        <v>-0.001981412638096286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.005118151551555927</v>
+        <v>0.007056988736667123</v>
       </c>
       <c r="C7">
-        <v>-0.02171710542194575</v>
+        <v>0.03278090002964699</v>
       </c>
       <c r="D7">
-        <v>-0.1110219768227262</v>
+        <v>-0.09908779114829722</v>
       </c>
       <c r="E7">
-        <v>0.001389228468429598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05343581850103688</v>
+      </c>
+      <c r="F7">
+        <v>-0.01303568046088373</v>
+      </c>
+      <c r="G7">
+        <v>-0.0004707540821108756</v>
+      </c>
+      <c r="H7">
+        <v>0.08172183924720924</v>
+      </c>
+      <c r="I7">
+        <v>-0.01386870863141786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003779038141259261</v>
+        <v>-0.01386667189542244</v>
       </c>
       <c r="C8">
-        <v>-0.02524046083646488</v>
+        <v>0.03116553805810237</v>
       </c>
       <c r="D8">
-        <v>-0.08046396915132525</v>
+        <v>-0.07790714063831287</v>
       </c>
       <c r="E8">
-        <v>0.02524252990229317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0197378443693064</v>
+      </c>
+      <c r="F8">
+        <v>-0.04568936412441445</v>
+      </c>
+      <c r="G8">
+        <v>0.06249142104007121</v>
+      </c>
+      <c r="H8">
+        <v>0.004185054125995159</v>
+      </c>
+      <c r="I8">
+        <v>-0.02646617340882328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03902739858958843</v>
+        <v>0.0124599069621158</v>
       </c>
       <c r="C9">
-        <v>-0.05896613502878022</v>
+        <v>0.08402438352926944</v>
       </c>
       <c r="D9">
-        <v>-0.1336672554660336</v>
+        <v>-0.1207672687140366</v>
       </c>
       <c r="E9">
-        <v>0.06314473397328858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.003991928455068554</v>
+      </c>
+      <c r="F9">
+        <v>-0.056998922440528</v>
+      </c>
+      <c r="G9">
+        <v>-0.01293408977589936</v>
+      </c>
+      <c r="H9">
+        <v>0.06822187804753611</v>
+      </c>
+      <c r="I9">
+        <v>0.02133090845786538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1584181336410861</v>
+        <v>0.2339110530068603</v>
       </c>
       <c r="C10">
-        <v>0.1770002483904088</v>
+        <v>-0.09677872571573107</v>
       </c>
       <c r="D10">
-        <v>-0.00910916347443467</v>
+        <v>0.005892426046425232</v>
       </c>
       <c r="E10">
-        <v>0.04808592291050569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02431044323394932</v>
+      </c>
+      <c r="F10">
+        <v>-0.04254012963789927</v>
+      </c>
+      <c r="G10">
+        <v>0.005181418072832254</v>
+      </c>
+      <c r="H10">
+        <v>-0.06521280318879059</v>
+      </c>
+      <c r="I10">
+        <v>-0.0872919033493862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02080095249835572</v>
+        <v>0.008226078981923382</v>
       </c>
       <c r="C11">
-        <v>-0.03942372914983237</v>
+        <v>0.05161838885913878</v>
       </c>
       <c r="D11">
-        <v>-0.04962580031548998</v>
+        <v>-0.04329868715151913</v>
       </c>
       <c r="E11">
-        <v>-0.01628619434735329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01882724846044041</v>
+      </c>
+      <c r="F11">
+        <v>0.01204433821931924</v>
+      </c>
+      <c r="G11">
+        <v>-0.003788073538742681</v>
+      </c>
+      <c r="H11">
+        <v>0.04834667031674163</v>
+      </c>
+      <c r="I11">
+        <v>0.05126976527903877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0218122447524972</v>
+        <v>0.008873965135238776</v>
       </c>
       <c r="C12">
-        <v>-0.03949228010357857</v>
+        <v>0.04816407782012135</v>
       </c>
       <c r="D12">
-        <v>-0.06258017734082032</v>
+        <v>-0.04870966131396515</v>
       </c>
       <c r="E12">
-        <v>-0.006618716723312211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01846756780444509</v>
+      </c>
+      <c r="F12">
+        <v>0.01580632688509924</v>
+      </c>
+      <c r="G12">
+        <v>-0.02200883790518846</v>
+      </c>
+      <c r="H12">
+        <v>0.07335178347169968</v>
+      </c>
+      <c r="I12">
+        <v>0.0285959269416194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005287999671867126</v>
+        <v>-0.003253402468192808</v>
       </c>
       <c r="C13">
-        <v>-0.02301927230981612</v>
+        <v>0.04086801803376177</v>
       </c>
       <c r="D13">
-        <v>-0.1467841974542628</v>
+        <v>-0.1463424205331361</v>
       </c>
       <c r="E13">
-        <v>0.03109856578956234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04093168271792894</v>
+      </c>
+      <c r="F13">
+        <v>-0.04041690599236307</v>
+      </c>
+      <c r="G13">
+        <v>0.04011653248429611</v>
+      </c>
+      <c r="H13">
+        <v>0.0776143167396794</v>
+      </c>
+      <c r="I13">
+        <v>-0.1188208845356324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004079996892089907</v>
+        <v>-0.002199734671713244</v>
       </c>
       <c r="C14">
-        <v>-0.01718765854614736</v>
+        <v>0.02658708556063891</v>
       </c>
       <c r="D14">
-        <v>-0.099037061942248</v>
+        <v>-0.1041266426271492</v>
       </c>
       <c r="E14">
-        <v>0.008973024474921695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.02995856598834321</v>
+      </c>
+      <c r="F14">
+        <v>-0.03037962367794442</v>
+      </c>
+      <c r="G14">
+        <v>0.02361368029610816</v>
+      </c>
+      <c r="H14">
+        <v>0.1311355258022671</v>
+      </c>
+      <c r="I14">
+        <v>-0.02043991561361497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001673296058510381</v>
+        <v>-0.0016257298967448</v>
       </c>
       <c r="C15">
-        <v>-0.01040204373929654</v>
+        <v>0.02002460219501859</v>
       </c>
       <c r="D15">
-        <v>-0.02739293027660815</v>
+        <v>-0.05489387205310338</v>
       </c>
       <c r="E15">
-        <v>-0.003861821090193606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.006234365654519296</v>
+      </c>
+      <c r="F15">
+        <v>-0.004926220228953574</v>
+      </c>
+      <c r="G15">
+        <v>0.02441606114626876</v>
+      </c>
+      <c r="H15">
+        <v>0.02894035764161278</v>
+      </c>
+      <c r="I15">
+        <v>0.01757190185112206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02105060228554701</v>
+        <v>0.008815159056201649</v>
       </c>
       <c r="C16">
-        <v>-0.03734789271536829</v>
+        <v>0.04770047045775748</v>
       </c>
       <c r="D16">
-        <v>-0.05644027674387814</v>
+        <v>-0.04462959760048967</v>
       </c>
       <c r="E16">
-        <v>-0.009182698752355717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02094898264252133</v>
+      </c>
+      <c r="F16">
+        <v>0.007897401455083849</v>
+      </c>
+      <c r="G16">
+        <v>-0.01507042814600073</v>
+      </c>
+      <c r="H16">
+        <v>0.05468419368818479</v>
+      </c>
+      <c r="I16">
+        <v>0.04616512049404498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.00606837065238832</v>
+        <v>0.0004869069534203938</v>
       </c>
       <c r="C19">
-        <v>-0.01884583305517963</v>
+        <v>0.01808016904336983</v>
       </c>
       <c r="D19">
-        <v>-0.1075205758718881</v>
+        <v>-0.06909870419580753</v>
       </c>
       <c r="E19">
-        <v>0.03988694369427127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01929886402698181</v>
+      </c>
+      <c r="F19">
+        <v>-0.007436314502169377</v>
+      </c>
+      <c r="G19">
+        <v>0.01193901526114172</v>
+      </c>
+      <c r="H19">
+        <v>0.06309156615431882</v>
+      </c>
+      <c r="I19">
+        <v>-0.04699613393355643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004302551248869422</v>
+        <v>0.003074918221315394</v>
       </c>
       <c r="C20">
-        <v>-0.02378840016098224</v>
+        <v>0.03700382615031118</v>
       </c>
       <c r="D20">
-        <v>-0.08897633677377187</v>
+        <v>-0.09572722272250103</v>
       </c>
       <c r="E20">
-        <v>0.03359582420369134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.008819326089404455</v>
+      </c>
+      <c r="F20">
+        <v>-0.02650341610296994</v>
+      </c>
+      <c r="G20">
+        <v>-0.002840602701998939</v>
+      </c>
+      <c r="H20">
+        <v>0.05917325879928212</v>
+      </c>
+      <c r="I20">
+        <v>0.02237439876657354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007960040591585543</v>
+        <v>0.0007436779956182287</v>
       </c>
       <c r="C21">
-        <v>-0.02915852636052188</v>
+        <v>0.03992666927100812</v>
       </c>
       <c r="D21">
-        <v>-0.1659579122146463</v>
+        <v>-0.1323884845520179</v>
       </c>
       <c r="E21">
-        <v>0.07095152808495254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.001585921212683883</v>
+      </c>
+      <c r="F21">
+        <v>-0.08174861811604335</v>
+      </c>
+      <c r="G21">
+        <v>0.03163560429584548</v>
+      </c>
+      <c r="H21">
+        <v>0.197568261721747</v>
+      </c>
+      <c r="I21">
+        <v>-0.1701873331258484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001347226193374087</v>
+        <v>-0.01150419788321892</v>
       </c>
       <c r="C22">
-        <v>-0.06091158133105885</v>
+        <v>0.08153570560251848</v>
       </c>
       <c r="D22">
-        <v>-0.2389548060117975</v>
+        <v>-0.2748595830539564</v>
       </c>
       <c r="E22">
-        <v>-0.0216345811072991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04432631818440883</v>
+      </c>
+      <c r="F22">
+        <v>-0.02623261557844117</v>
+      </c>
+      <c r="G22">
+        <v>0.3297755137383205</v>
+      </c>
+      <c r="H22">
+        <v>-0.404002670051376</v>
+      </c>
+      <c r="I22">
+        <v>0.1312462694518813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001613955381690436</v>
+        <v>-0.01111649321434971</v>
       </c>
       <c r="C23">
-        <v>-0.06139825057821065</v>
+        <v>0.08255987370307261</v>
       </c>
       <c r="D23">
-        <v>-0.2385319601350016</v>
+        <v>-0.2755961689672654</v>
       </c>
       <c r="E23">
-        <v>-0.02146330032510422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04098605219344878</v>
+      </c>
+      <c r="F23">
+        <v>-0.02582300276594524</v>
+      </c>
+      <c r="G23">
+        <v>0.3292852784771262</v>
+      </c>
+      <c r="H23">
+        <v>-0.4040244404866428</v>
+      </c>
+      <c r="I23">
+        <v>0.1318894105748382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02723194732768792</v>
+        <v>0.008018270567504499</v>
       </c>
       <c r="C24">
-        <v>-0.05568027817750351</v>
+        <v>0.06453806405938824</v>
       </c>
       <c r="D24">
-        <v>-0.06886678084496604</v>
+        <v>-0.05263537321718401</v>
       </c>
       <c r="E24">
-        <v>-0.005468334645755795</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02515701876107581</v>
+      </c>
+      <c r="F24">
+        <v>0.005684434724128999</v>
+      </c>
+      <c r="G24">
+        <v>-0.005310900664848412</v>
+      </c>
+      <c r="H24">
+        <v>0.07869049198786261</v>
+      </c>
+      <c r="I24">
+        <v>0.04074333137298946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02866751068162424</v>
+        <v>0.01188759004068137</v>
       </c>
       <c r="C25">
-        <v>-0.04665168663820329</v>
+        <v>0.0593883478673817</v>
       </c>
       <c r="D25">
-        <v>-0.06090723514838346</v>
+        <v>-0.05095782654650976</v>
       </c>
       <c r="E25">
-        <v>-0.0009533093116871381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01100755626383564</v>
+      </c>
+      <c r="F25">
+        <v>0.008253758150458508</v>
+      </c>
+      <c r="G25">
+        <v>-0.01389056095913645</v>
+      </c>
+      <c r="H25">
+        <v>0.04409640537920333</v>
+      </c>
+      <c r="I25">
+        <v>0.03122397016558011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008396267694363052</v>
+        <v>0.005327184820812811</v>
       </c>
       <c r="C26">
-        <v>-0.01327931832504364</v>
+        <v>0.02516929295961996</v>
       </c>
       <c r="D26">
-        <v>-0.07984187634091637</v>
+        <v>-0.06848328434755079</v>
       </c>
       <c r="E26">
-        <v>0.0187814563986554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02882244327512471</v>
+      </c>
+      <c r="F26">
+        <v>-0.02735535314803361</v>
+      </c>
+      <c r="G26">
+        <v>-3.89473414824572e-05</v>
+      </c>
+      <c r="H26">
+        <v>0.09227133002663494</v>
+      </c>
+      <c r="I26">
+        <v>-0.03844331249338378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2435040130881261</v>
+        <v>0.3202254600882742</v>
       </c>
       <c r="C28">
-        <v>0.2168543184685645</v>
+        <v>-0.09532611759639482</v>
       </c>
       <c r="D28">
-        <v>-0.01984503663479684</v>
+        <v>0.006265853518502472</v>
       </c>
       <c r="E28">
-        <v>0.06655160693562263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05566319597655141</v>
+      </c>
+      <c r="F28">
+        <v>-0.0396631244602233</v>
+      </c>
+      <c r="G28">
+        <v>0.03340278691072711</v>
+      </c>
+      <c r="H28">
+        <v>-0.01267153417188158</v>
+      </c>
+      <c r="I28">
+        <v>-0.1264977033565962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0003359727975952011</v>
+        <v>-0.003221721771654446</v>
       </c>
       <c r="C29">
-        <v>-0.02098265702595127</v>
+        <v>0.0296305907145054</v>
       </c>
       <c r="D29">
-        <v>-0.09653252748800892</v>
+        <v>-0.09984180324335681</v>
       </c>
       <c r="E29">
-        <v>0.01415199403286105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.04011088619268797</v>
+      </c>
+      <c r="F29">
+        <v>-0.03737018382490789</v>
+      </c>
+      <c r="G29">
+        <v>0.01346449680102242</v>
+      </c>
+      <c r="H29">
+        <v>0.1387848322903713</v>
+      </c>
+      <c r="I29">
+        <v>-0.02013175739321717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02499233422889621</v>
+        <v>0.01301859825633529</v>
       </c>
       <c r="C30">
-        <v>-0.05735279280050103</v>
+        <v>0.08357789617532942</v>
       </c>
       <c r="D30">
-        <v>-0.1662572937020655</v>
+        <v>-0.1617217536223105</v>
       </c>
       <c r="E30">
-        <v>0.02107140714063813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04002816095391454</v>
+      </c>
+      <c r="F30">
+        <v>-0.0358333732847441</v>
+      </c>
+      <c r="G30">
+        <v>0.03163169855635212</v>
+      </c>
+      <c r="H30">
+        <v>0.06376540082984784</v>
+      </c>
+      <c r="I30">
+        <v>0.06927319922303704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04451155573581281</v>
+        <v>0.007880890391888393</v>
       </c>
       <c r="C31">
-        <v>-0.08262700113730376</v>
+        <v>0.09222926568869827</v>
       </c>
       <c r="D31">
-        <v>-0.06889842117016946</v>
+        <v>-0.04102973762600515</v>
       </c>
       <c r="E31">
-        <v>0.01210340922502561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.009533786095612002</v>
+      </c>
+      <c r="F31">
+        <v>-0.0133654963968925</v>
+      </c>
+      <c r="G31">
+        <v>0.007917415571323864</v>
+      </c>
+      <c r="H31">
+        <v>0.0470557548164213</v>
+      </c>
+      <c r="I31">
+        <v>-0.05580003900273964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02148260900730988</v>
+        <v>0.010475686624601</v>
       </c>
       <c r="C32">
-        <v>-0.03048764820421344</v>
+        <v>0.04445830446890826</v>
       </c>
       <c r="D32">
-        <v>-0.1057835194164729</v>
+        <v>-0.1113934165324947</v>
       </c>
       <c r="E32">
-        <v>0.0675110882446822</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.003777276514430299</v>
+      </c>
+      <c r="F32">
+        <v>-0.04530579285357969</v>
+      </c>
+      <c r="G32">
+        <v>0.02191513194506634</v>
+      </c>
+      <c r="H32">
+        <v>0.04097078574040119</v>
+      </c>
+      <c r="I32">
+        <v>-0.07624227513900393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0135308736618822</v>
+        <v>0.005368080304413884</v>
       </c>
       <c r="C33">
-        <v>-0.03954545034839586</v>
+        <v>0.05513259246367689</v>
       </c>
       <c r="D33">
-        <v>-0.1415675593601094</v>
+        <v>-0.1249143841751131</v>
       </c>
       <c r="E33">
-        <v>0.03801978803062482</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01670560944708384</v>
+      </c>
+      <c r="F33">
+        <v>-0.02564845262420434</v>
+      </c>
+      <c r="G33">
+        <v>0.0050098433566708</v>
+      </c>
+      <c r="H33">
+        <v>0.06832417041893252</v>
+      </c>
+      <c r="I33">
+        <v>-0.007643228438586227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02427601686811048</v>
+        <v>0.005640016846589037</v>
       </c>
       <c r="C34">
-        <v>-0.05805867575171123</v>
+        <v>0.06117562447987457</v>
       </c>
       <c r="D34">
-        <v>-0.05075987614033116</v>
+        <v>-0.03097992624466531</v>
       </c>
       <c r="E34">
-        <v>-0.04807230571536691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02840870753700004</v>
+      </c>
+      <c r="F34">
+        <v>0.03790540752399834</v>
+      </c>
+      <c r="G34">
+        <v>-0.009410532178083124</v>
+      </c>
+      <c r="H34">
+        <v>0.05899666553476608</v>
+      </c>
+      <c r="I34">
+        <v>0.01795626029701935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001149832976549515</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.007276259564189765</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02927077678904764</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004096484635457903</v>
+      </c>
+      <c r="F35">
+        <v>-0.01216133848009758</v>
+      </c>
+      <c r="G35">
+        <v>0.007872283276482765</v>
+      </c>
+      <c r="H35">
+        <v>0.03792302567641254</v>
+      </c>
+      <c r="I35">
+        <v>0.0212251087215206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.008231032884350141</v>
+        <v>0.005436499330997955</v>
       </c>
       <c r="C36">
-        <v>-0.004947673945221677</v>
+        <v>0.01867084357423189</v>
       </c>
       <c r="D36">
-        <v>-0.08716167473229042</v>
+        <v>-0.07497234599144049</v>
       </c>
       <c r="E36">
-        <v>0.04143865649725243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.006680425128948874</v>
+      </c>
+      <c r="F36">
+        <v>-0.03677317460559344</v>
+      </c>
+      <c r="G36">
+        <v>0.002701172323735056</v>
+      </c>
+      <c r="H36">
+        <v>0.06086160000004084</v>
+      </c>
+      <c r="I36">
+        <v>-0.02460550995959315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006301354940927853</v>
+        <v>0.01175568498891991</v>
       </c>
       <c r="C38">
-        <v>-0.005427904355871492</v>
+        <v>0.01543057904012059</v>
       </c>
       <c r="D38">
-        <v>-0.08464471894129724</v>
+        <v>-0.08446068036624023</v>
       </c>
       <c r="E38">
-        <v>0.009073299000486113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01098193839603728</v>
+      </c>
+      <c r="F38">
+        <v>0.005789733207914091</v>
+      </c>
+      <c r="G38">
+        <v>0.02399052059236857</v>
+      </c>
+      <c r="H38">
+        <v>0.05616719456419764</v>
+      </c>
+      <c r="I38">
+        <v>-0.02722201013200966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01917322742288066</v>
+        <v>0.003012250354264856</v>
       </c>
       <c r="C39">
-        <v>-0.05556269177892895</v>
+        <v>0.07339683984167217</v>
       </c>
       <c r="D39">
-        <v>-0.1142919115169555</v>
+        <v>-0.1025325577038582</v>
       </c>
       <c r="E39">
-        <v>-0.01920518295888331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04812771798625084</v>
+      </c>
+      <c r="F39">
+        <v>0.002127245131124026</v>
+      </c>
+      <c r="G39">
+        <v>-0.005550616271409296</v>
+      </c>
+      <c r="H39">
+        <v>0.1084335145495209</v>
+      </c>
+      <c r="I39">
+        <v>0.06783372548478589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01064516433128369</v>
+        <v>0.009148285792416215</v>
       </c>
       <c r="C40">
-        <v>-0.01577333224353639</v>
+        <v>0.02425674382241549</v>
       </c>
       <c r="D40">
-        <v>-0.1188711325364779</v>
+        <v>-0.09520263242066762</v>
       </c>
       <c r="E40">
-        <v>-0.02051973773963221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04546840725568588</v>
+      </c>
+      <c r="F40">
+        <v>0.01855323594737355</v>
+      </c>
+      <c r="G40">
+        <v>0.07115298212598824</v>
+      </c>
+      <c r="H40">
+        <v>0.08000483689532961</v>
+      </c>
+      <c r="I40">
+        <v>-0.08797672191881314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01132345763172807</v>
+        <v>0.01258464487275313</v>
       </c>
       <c r="C41">
-        <v>-0.004868588456396753</v>
+        <v>0.01473630009855454</v>
       </c>
       <c r="D41">
-        <v>-0.05026144982870598</v>
+        <v>-0.04087738338124678</v>
       </c>
       <c r="E41">
-        <v>0.03092532825921911</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02014518849814576</v>
+      </c>
+      <c r="F41">
+        <v>-0.0165665944476343</v>
+      </c>
+      <c r="G41">
+        <v>0.01313220410596327</v>
+      </c>
+      <c r="H41">
+        <v>0.03769202945468991</v>
+      </c>
+      <c r="I41">
+        <v>-0.02820554285976933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005050654005924114</v>
+        <v>0.006128225196040718</v>
       </c>
       <c r="C43">
-        <v>-0.005373017405564032</v>
+        <v>0.01293599438906894</v>
       </c>
       <c r="D43">
-        <v>-0.06079924980771852</v>
+        <v>-0.04964620544949188</v>
       </c>
       <c r="E43">
-        <v>0.0200637855589716</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.004352208353572477</v>
+      </c>
+      <c r="F43">
+        <v>-0.0134336749375917</v>
+      </c>
+      <c r="G43">
+        <v>0.01250468546863481</v>
+      </c>
+      <c r="H43">
+        <v>0.05531259881330385</v>
+      </c>
+      <c r="I43">
+        <v>-0.01270684030399522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01672170711892045</v>
+        <v>0.008592851856635204</v>
       </c>
       <c r="C44">
-        <v>-0.02417544850139396</v>
+        <v>0.04359450088584278</v>
       </c>
       <c r="D44">
-        <v>-0.1122274949088403</v>
+        <v>-0.1167759955527429</v>
       </c>
       <c r="E44">
-        <v>0.04417784309708762</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01971103771003122</v>
+      </c>
+      <c r="F44">
+        <v>-0.02914579831361698</v>
+      </c>
+      <c r="G44">
+        <v>0.02378762739088098</v>
+      </c>
+      <c r="H44">
+        <v>0.05132232331012371</v>
+      </c>
+      <c r="I44">
+        <v>0.05836855752722745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007318370397733714</v>
+        <v>-0.001921522695096816</v>
       </c>
       <c r="C46">
-        <v>-0.0271755083683824</v>
+        <v>0.03828346653689326</v>
       </c>
       <c r="D46">
-        <v>-0.09025463400531497</v>
+        <v>-0.08330117333907099</v>
       </c>
       <c r="E46">
-        <v>0.01830187198499146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02701346662777236</v>
+      </c>
+      <c r="F46">
+        <v>-0.02998609100875552</v>
+      </c>
+      <c r="G46">
+        <v>0.01994239113520984</v>
+      </c>
+      <c r="H46">
+        <v>0.1403462479495287</v>
+      </c>
+      <c r="I46">
+        <v>-0.005377389754256633</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08705604701690445</v>
+        <v>0.03270555081266111</v>
       </c>
       <c r="C47">
-        <v>-0.1020689450263693</v>
+        <v>0.1251987118420135</v>
       </c>
       <c r="D47">
-        <v>-0.05874965219592158</v>
+        <v>-0.02428361415864693</v>
       </c>
       <c r="E47">
-        <v>0.02783495269599593</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01923031091015184</v>
+      </c>
+      <c r="F47">
+        <v>0.01083975819580437</v>
+      </c>
+      <c r="G47">
+        <v>-0.04237786738549273</v>
+      </c>
+      <c r="H47">
+        <v>0.04683616601751193</v>
+      </c>
+      <c r="I47">
+        <v>-0.1196155686671246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008316937442700624</v>
+        <v>0.004407303114246167</v>
       </c>
       <c r="C48">
-        <v>-0.01485392972741755</v>
+        <v>0.02902494804112346</v>
       </c>
       <c r="D48">
-        <v>-0.09403845871775496</v>
+        <v>-0.08026606497554011</v>
       </c>
       <c r="E48">
-        <v>0.05390636723618656</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0001568763402974127</v>
+      </c>
+      <c r="F48">
+        <v>-0.04197932088761754</v>
+      </c>
+      <c r="G48">
+        <v>0.01006191960170198</v>
+      </c>
+      <c r="H48">
+        <v>0.1004716606931154</v>
+      </c>
+      <c r="I48">
+        <v>-0.0067275547066936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04279668758275321</v>
+        <v>0.01256796814793773</v>
       </c>
       <c r="C50">
-        <v>-0.05856994485113709</v>
+        <v>0.07418032434131948</v>
       </c>
       <c r="D50">
-        <v>-0.06887912818345304</v>
+        <v>-0.04668001105534812</v>
       </c>
       <c r="E50">
-        <v>0.008512818821564039</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.002944665620977379</v>
+      </c>
+      <c r="F50">
+        <v>-0.005788609252953144</v>
+      </c>
+      <c r="G50">
+        <v>0.02176852682060801</v>
+      </c>
+      <c r="H50">
+        <v>0.03224408959524067</v>
+      </c>
+      <c r="I50">
+        <v>-0.09437410356102091</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001414894187290639</v>
+        <v>-0.0002426199303123721</v>
       </c>
       <c r="C51">
-        <v>-0.002980913580421371</v>
+        <v>0.0144628956766635</v>
       </c>
       <c r="D51">
-        <v>-0.05624824036834623</v>
+        <v>-0.06095394090639703</v>
       </c>
       <c r="E51">
-        <v>0.001361195017931121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03843744529520896</v>
+      </c>
+      <c r="F51">
+        <v>-0.03921154853925729</v>
+      </c>
+      <c r="G51">
+        <v>0.03441053116212264</v>
+      </c>
+      <c r="H51">
+        <v>0.04451242010724302</v>
+      </c>
+      <c r="I51">
+        <v>-0.0176268268801887</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1125944154926367</v>
+        <v>0.05678142942563431</v>
       </c>
       <c r="C53">
-        <v>-0.1183757292120631</v>
+        <v>0.1570558701683602</v>
       </c>
       <c r="D53">
-        <v>-0.01878443658206236</v>
+        <v>0.01253512340876425</v>
       </c>
       <c r="E53">
-        <v>0.05729130148518871</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03443703245908507</v>
+      </c>
+      <c r="F53">
+        <v>-0.04575513708940349</v>
+      </c>
+      <c r="G53">
+        <v>0.003316197807177373</v>
+      </c>
+      <c r="H53">
+        <v>0.001382110024931859</v>
+      </c>
+      <c r="I53">
+        <v>-0.06045973758247532</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01554206462707912</v>
+        <v>0.01009997483988555</v>
       </c>
       <c r="C54">
-        <v>-0.02122974477564377</v>
+        <v>0.0378322898166648</v>
       </c>
       <c r="D54">
-        <v>-0.09864927625259572</v>
+        <v>-0.08362138915645538</v>
       </c>
       <c r="E54">
-        <v>0.0007547430491693713</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01162346246329951</v>
+      </c>
+      <c r="F54">
+        <v>0.001854635861643771</v>
+      </c>
+      <c r="G54">
+        <v>0.02790130800998393</v>
+      </c>
+      <c r="H54">
+        <v>0.09238138780785322</v>
+      </c>
+      <c r="I54">
+        <v>-0.02671927888021409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1001703957938696</v>
+        <v>0.04288531909748217</v>
       </c>
       <c r="C55">
-        <v>-0.0998165672716388</v>
+        <v>0.1299017337123777</v>
       </c>
       <c r="D55">
-        <v>-0.008033976007209049</v>
+        <v>0.02769617724951393</v>
       </c>
       <c r="E55">
-        <v>0.01192214060790281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003491032520479163</v>
+      </c>
+      <c r="F55">
+        <v>-0.01465378964253843</v>
+      </c>
+      <c r="G55">
+        <v>0.01568185312024319</v>
+      </c>
+      <c r="H55">
+        <v>0.006651736174014959</v>
+      </c>
+      <c r="I55">
+        <v>-0.07224205941534058</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1396802807608644</v>
+        <v>0.06095517284598344</v>
       </c>
       <c r="C56">
-        <v>-0.1338841174587746</v>
+        <v>0.188349822579139</v>
       </c>
       <c r="D56">
-        <v>-0.004412576306714965</v>
+        <v>0.02433466023563929</v>
       </c>
       <c r="E56">
-        <v>0.012440330261076</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03111301292198609</v>
+      </c>
+      <c r="F56">
+        <v>-0.01229245699819106</v>
+      </c>
+      <c r="G56">
+        <v>0.0599462021869536</v>
+      </c>
+      <c r="H56">
+        <v>-0.005604641692260049</v>
+      </c>
+      <c r="I56">
+        <v>-0.08745545148148921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.00509973251546227</v>
+        <v>0.002182276756744184</v>
       </c>
       <c r="C58">
-        <v>-0.01002927348207835</v>
+        <v>0.04744907651149484</v>
       </c>
       <c r="D58">
-        <v>-0.2149560555339746</v>
+        <v>-0.2834134143942519</v>
       </c>
       <c r="E58">
-        <v>0.07961608904788674</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.01689333476500218</v>
+      </c>
+      <c r="F58">
+        <v>-0.09844569452641527</v>
+      </c>
+      <c r="G58">
+        <v>0.1237749982651822</v>
+      </c>
+      <c r="H58">
+        <v>-0.09713363425744403</v>
+      </c>
+      <c r="I58">
+        <v>0.08267741227871288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.169056680179742</v>
+        <v>0.2474404148204136</v>
       </c>
       <c r="C59">
-        <v>0.1563593730494204</v>
+        <v>-0.06648084315950084</v>
       </c>
       <c r="D59">
-        <v>-0.04582747284502377</v>
+        <v>-0.05875779564670951</v>
       </c>
       <c r="E59">
-        <v>0.03641233683296476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03314039719488636</v>
+      </c>
+      <c r="F59">
+        <v>-0.01431057167887215</v>
+      </c>
+      <c r="G59">
+        <v>0.002151172999063929</v>
+      </c>
+      <c r="H59">
+        <v>-0.01171113207035516</v>
+      </c>
+      <c r="I59">
+        <v>-0.05620190384301689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1951466735154072</v>
+        <v>0.1524298261311881</v>
       </c>
       <c r="C60">
-        <v>-0.09070529271414962</v>
+        <v>0.1692642644123215</v>
       </c>
       <c r="D60">
-        <v>-0.1912727824848793</v>
+        <v>-0.09498497793978644</v>
       </c>
       <c r="E60">
-        <v>-0.1699216766629157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2203795019820492</v>
+      </c>
+      <c r="F60">
+        <v>0.1734087016172613</v>
+      </c>
+      <c r="G60">
+        <v>-0.2444551324878333</v>
+      </c>
+      <c r="H60">
+        <v>-0.201487128489677</v>
+      </c>
+      <c r="I60">
+        <v>-0.008516031455115522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02940357531104821</v>
+        <v>0.01085125326402117</v>
       </c>
       <c r="C61">
-        <v>-0.05177386546694213</v>
+        <v>0.0698455904487392</v>
       </c>
       <c r="D61">
-        <v>-0.1008048295401749</v>
+        <v>-0.08041994003348402</v>
       </c>
       <c r="E61">
-        <v>-0.008550113282319567</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03582502555434152</v>
+      </c>
+      <c r="F61">
+        <v>0.01199887443031799</v>
+      </c>
+      <c r="G61">
+        <v>-0.01981370405034637</v>
+      </c>
+      <c r="H61">
+        <v>0.09540182879181477</v>
+      </c>
+      <c r="I61">
+        <v>0.0219724963144041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.009280044333029433</v>
+        <v>0.00199338958412565</v>
       </c>
       <c r="C63">
-        <v>-0.02526280873747913</v>
+        <v>0.03481249956106266</v>
       </c>
       <c r="D63">
-        <v>-0.09278284530562174</v>
+        <v>-0.07086667375358476</v>
       </c>
       <c r="E63">
-        <v>0.01298708403836115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02771654512525843</v>
+      </c>
+      <c r="F63">
+        <v>-0.01977652936216671</v>
+      </c>
+      <c r="G63">
+        <v>0.006877114852010089</v>
+      </c>
+      <c r="H63">
+        <v>0.06076491228126218</v>
+      </c>
+      <c r="I63">
+        <v>0.008696648201037334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0644882091679258</v>
+        <v>0.02060680032557459</v>
       </c>
       <c r="C64">
-        <v>-0.07874986668469131</v>
+        <v>0.1042835764707037</v>
       </c>
       <c r="D64">
-        <v>-0.03956341751481226</v>
+        <v>-0.02614749180153523</v>
       </c>
       <c r="E64">
-        <v>0.02036487773305031</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0285866609161378</v>
+      </c>
+      <c r="F64">
+        <v>-0.02508483378960772</v>
+      </c>
+      <c r="G64">
+        <v>-0.04230994835552483</v>
+      </c>
+      <c r="H64">
+        <v>0.1162331417929619</v>
+      </c>
+      <c r="I64">
+        <v>0.0624494741867145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02652964118144416</v>
+        <v>0.02149932407784264</v>
       </c>
       <c r="C65">
-        <v>-0.01580754422249878</v>
+        <v>0.0400994202186308</v>
       </c>
       <c r="D65">
-        <v>-0.1187250419906788</v>
+        <v>-0.1196151088229855</v>
       </c>
       <c r="E65">
-        <v>0.003382922971547154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04569045304387425</v>
+      </c>
+      <c r="F65">
+        <v>-0.001459626849919784</v>
+      </c>
+      <c r="G65">
+        <v>-0.02383368615733489</v>
+      </c>
+      <c r="H65">
+        <v>0.04467734272913679</v>
+      </c>
+      <c r="I65">
+        <v>0.0215828024145073</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02291832896869713</v>
+        <v>0.001052000761964896</v>
       </c>
       <c r="C66">
-        <v>-0.06313362364994267</v>
+        <v>0.08937387186606871</v>
       </c>
       <c r="D66">
-        <v>-0.121360038134601</v>
+        <v>-0.1286604051511801</v>
       </c>
       <c r="E66">
-        <v>-0.02217112188491513</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03356789561016927</v>
+      </c>
+      <c r="F66">
+        <v>0.01057559469851124</v>
+      </c>
+      <c r="G66">
+        <v>0.01034822689482346</v>
+      </c>
+      <c r="H66">
+        <v>0.06604067340538033</v>
+      </c>
+      <c r="I66">
+        <v>0.06820112456128183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02666695115210316</v>
+        <v>0.02301615006945203</v>
       </c>
       <c r="C67">
-        <v>-0.01721988812714822</v>
+        <v>0.02764365559475238</v>
       </c>
       <c r="D67">
-        <v>-0.03943048839155314</v>
+        <v>-0.0340204855718801</v>
       </c>
       <c r="E67">
-        <v>-0.01673565643760729</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003775183589902094</v>
+      </c>
+      <c r="F67">
+        <v>0.02950786754553595</v>
+      </c>
+      <c r="G67">
+        <v>0.01077025956021353</v>
+      </c>
+      <c r="H67">
+        <v>0.05987753037796764</v>
+      </c>
+      <c r="I67">
+        <v>-0.02004693654867628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1959653609927344</v>
+        <v>0.2724890721227693</v>
       </c>
       <c r="C68">
-        <v>0.1698297990289156</v>
+        <v>-0.06791780632145576</v>
       </c>
       <c r="D68">
-        <v>-0.03422348512819113</v>
+        <v>-0.03829085028132839</v>
       </c>
       <c r="E68">
-        <v>0.01151570356188296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.001109647976965943</v>
+      </c>
+      <c r="F68">
+        <v>-0.02157960518570017</v>
+      </c>
+      <c r="G68">
+        <v>0.05695565201109779</v>
+      </c>
+      <c r="H68">
+        <v>-0.05209256880670378</v>
+      </c>
+      <c r="I68">
+        <v>-0.09088429251376562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06456769124602156</v>
+        <v>0.01845956324677021</v>
       </c>
       <c r="C69">
-        <v>-0.1132044774929434</v>
+        <v>0.1190606982848849</v>
       </c>
       <c r="D69">
-        <v>-0.08241771211544247</v>
+        <v>-0.03602515484826675</v>
       </c>
       <c r="E69">
-        <v>0.01427155349571626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.003575364563133645</v>
+      </c>
+      <c r="F69">
+        <v>0.0118322427433129</v>
+      </c>
+      <c r="G69">
+        <v>-0.028182780857138</v>
+      </c>
+      <c r="H69">
+        <v>0.04341320437702161</v>
+      </c>
+      <c r="I69">
+        <v>-0.07972343716290513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2005199200943565</v>
+        <v>0.2715217584120593</v>
       </c>
       <c r="C71">
-        <v>0.1909117762798228</v>
+        <v>-0.08393394839402353</v>
       </c>
       <c r="D71">
-        <v>-0.02429056079965081</v>
+        <v>-0.02121132275502096</v>
       </c>
       <c r="E71">
-        <v>0.01650608636063735</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008676343698737127</v>
+      </c>
+      <c r="F71">
+        <v>-0.01404509046657402</v>
+      </c>
+      <c r="G71">
+        <v>0.03177829692888859</v>
+      </c>
+      <c r="H71">
+        <v>0.01155566133155166</v>
+      </c>
+      <c r="I71">
+        <v>-0.1379401917769368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1099941113477508</v>
+        <v>0.05696573415996801</v>
       </c>
       <c r="C72">
-        <v>-0.06662575269024494</v>
+        <v>0.1223073828359524</v>
       </c>
       <c r="D72">
-        <v>-0.1028211781385286</v>
+        <v>-0.06317473761280415</v>
       </c>
       <c r="E72">
-        <v>-0.04966901111506571</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08507165491826661</v>
+      </c>
+      <c r="F72">
+        <v>0.0167498005408788</v>
+      </c>
+      <c r="G72">
+        <v>-0.02348019684424396</v>
+      </c>
+      <c r="H72">
+        <v>0.05696263191472481</v>
+      </c>
+      <c r="I72">
+        <v>0.06542227255693238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1793221522429817</v>
+        <v>0.1356976556091299</v>
       </c>
       <c r="C73">
-        <v>-0.05594524419235269</v>
+        <v>0.1416172994873692</v>
       </c>
       <c r="D73">
-        <v>-0.2643061520381932</v>
+        <v>-0.1041762357722928</v>
       </c>
       <c r="E73">
-        <v>-0.2615679726052776</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3679987586410309</v>
+      </c>
+      <c r="F73">
+        <v>0.2505924631654456</v>
+      </c>
+      <c r="G73">
+        <v>-0.4265830820097894</v>
+      </c>
+      <c r="H73">
+        <v>-0.1253092286615517</v>
+      </c>
+      <c r="I73">
+        <v>0.04179857127261231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1140082232831142</v>
+        <v>0.0521415372621308</v>
       </c>
       <c r="C74">
-        <v>-0.1102508451469794</v>
+        <v>0.1488526126175727</v>
       </c>
       <c r="D74">
-        <v>0.01892129333191474</v>
+        <v>0.03716426999093359</v>
       </c>
       <c r="E74">
-        <v>0.04076044277271543</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01173239637121236</v>
+      </c>
+      <c r="F74">
+        <v>-0.03642120523857998</v>
+      </c>
+      <c r="G74">
+        <v>0.0004793203090642759</v>
+      </c>
+      <c r="H74">
+        <v>-0.0167196664727341</v>
+      </c>
+      <c r="I74">
+        <v>-0.09596804746125895</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2461442526636286</v>
+        <v>0.1152682768412666</v>
       </c>
       <c r="C75">
-        <v>-0.1869970191998892</v>
+        <v>0.271160371599578</v>
       </c>
       <c r="D75">
-        <v>0.1075899500024458</v>
+        <v>0.130265388974266</v>
       </c>
       <c r="E75">
-        <v>-0.0185147461984055</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09088289906763386</v>
+      </c>
+      <c r="F75">
+        <v>0.04215402808204535</v>
+      </c>
+      <c r="G75">
+        <v>0.09660263935290836</v>
+      </c>
+      <c r="H75">
+        <v>-0.008723411623038132</v>
+      </c>
+      <c r="I75">
+        <v>-0.06993573759893498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1475820460751335</v>
+        <v>0.06579391372199861</v>
       </c>
       <c r="C76">
-        <v>-0.1311395165067831</v>
+        <v>0.1836917752967741</v>
       </c>
       <c r="D76">
-        <v>-0.02065999450896527</v>
+        <v>0.02951089519487863</v>
       </c>
       <c r="E76">
-        <v>0.01175438063026352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0251158478511656</v>
+      </c>
+      <c r="F76">
+        <v>-0.0006020477507730263</v>
+      </c>
+      <c r="G76">
+        <v>0.04148990123108576</v>
+      </c>
+      <c r="H76">
+        <v>0.02543447394053239</v>
+      </c>
+      <c r="I76">
+        <v>-0.08200193183612907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01442545724602359</v>
+        <v>0.02423148699743679</v>
       </c>
       <c r="C77">
-        <v>-0.07395987864600796</v>
+        <v>0.08822964729992573</v>
       </c>
       <c r="D77">
-        <v>-0.03988653746654616</v>
+        <v>-0.2778087047352077</v>
       </c>
       <c r="E77">
-        <v>0.2026205037239522</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7773488611238066</v>
+      </c>
+      <c r="F77">
+        <v>0.3167873820533283</v>
+      </c>
+      <c r="G77">
+        <v>-0.2951308891173006</v>
+      </c>
+      <c r="H77">
+        <v>-0.1925217945366229</v>
+      </c>
+      <c r="I77">
+        <v>-0.0202057921798804</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02802968812724757</v>
+        <v>0.01224736817702675</v>
       </c>
       <c r="C78">
-        <v>-0.06463250880526052</v>
+        <v>0.08633319597161697</v>
       </c>
       <c r="D78">
-        <v>-0.1514277498634332</v>
+        <v>-0.1340044429860216</v>
       </c>
       <c r="E78">
-        <v>0.04424130206087002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.05163506641835378</v>
+      </c>
+      <c r="F78">
+        <v>-0.05003096763980155</v>
+      </c>
+      <c r="G78">
+        <v>0.03499986673978022</v>
+      </c>
+      <c r="H78">
+        <v>0.02620613176384615</v>
+      </c>
+      <c r="I78">
+        <v>-0.1094899829376379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.0999716236721207</v>
+        <v>0.03440387510798345</v>
       </c>
       <c r="C79">
-        <v>-0.1649054867540556</v>
+        <v>0.1880227304657712</v>
       </c>
       <c r="D79">
-        <v>0.09212715409011578</v>
+        <v>0.06663724208757542</v>
       </c>
       <c r="E79">
-        <v>0.8085000560535522</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1143598009410911</v>
+      </c>
+      <c r="F79">
+        <v>-0.8025871698316691</v>
+      </c>
+      <c r="G79">
+        <v>-0.3999592229506188</v>
+      </c>
+      <c r="H79">
+        <v>-0.213284054166394</v>
+      </c>
+      <c r="I79">
+        <v>0.1321042452635087</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007319654143530459</v>
+        <v>0.0004469931767060464</v>
       </c>
       <c r="C80">
-        <v>-0.04613075474341958</v>
+        <v>0.04530889591196568</v>
       </c>
       <c r="D80">
-        <v>-0.04897103007993663</v>
+        <v>-0.04426691449509257</v>
       </c>
       <c r="E80">
-        <v>-0.006756382154861246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02335829836761193</v>
+      </c>
+      <c r="F80">
+        <v>-0.003371040609664551</v>
+      </c>
+      <c r="G80">
+        <v>0.02090748450025123</v>
+      </c>
+      <c r="H80">
+        <v>0.01036819909888333</v>
+      </c>
+      <c r="I80">
+        <v>-0.06711461278946437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1249013042126431</v>
+        <v>0.04518497162451584</v>
       </c>
       <c r="C81">
-        <v>-0.1271206771317735</v>
+        <v>0.1670594850432614</v>
       </c>
       <c r="D81">
-        <v>0.07418321313521822</v>
+        <v>0.07839618103818875</v>
       </c>
       <c r="E81">
-        <v>0.06583406148242721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06962900902622064</v>
+      </c>
+      <c r="F81">
+        <v>-0.04693648842355282</v>
+      </c>
+      <c r="G81">
+        <v>0.05257004458917402</v>
+      </c>
+      <c r="H81">
+        <v>0.05857653974141054</v>
+      </c>
+      <c r="I81">
+        <v>-0.1158745474357727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2674527809351278</v>
+        <v>0.09823356332541269</v>
       </c>
       <c r="C82">
-        <v>-0.2834804873795046</v>
+        <v>0.331456537344116</v>
       </c>
       <c r="D82">
-        <v>0.203142878873057</v>
+        <v>0.2248742290874988</v>
       </c>
       <c r="E82">
-        <v>-0.1310368223980918</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.046427383502789</v>
+      </c>
+      <c r="F82">
+        <v>0.1202132210579362</v>
+      </c>
+      <c r="G82">
+        <v>0.09328788882287463</v>
+      </c>
+      <c r="H82">
+        <v>0.09289261954307719</v>
+      </c>
+      <c r="I82">
+        <v>-0.05175527155989897</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004281102293501979</v>
+        <v>-0.01377818726236127</v>
       </c>
       <c r="C83">
-        <v>-0.05238043499569869</v>
+        <v>0.0315607887989935</v>
       </c>
       <c r="D83">
-        <v>-0.01116246722519035</v>
+        <v>-0.03717914935408842</v>
       </c>
       <c r="E83">
-        <v>0.05580365223352755</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09730222311994459</v>
+      </c>
+      <c r="F83">
+        <v>-0.03435380668817843</v>
+      </c>
+      <c r="G83">
+        <v>0.06136747647546294</v>
+      </c>
+      <c r="H83">
+        <v>0.01141363661289862</v>
+      </c>
+      <c r="I83">
+        <v>-0.4579696438819473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0007063034343672764</v>
+        <v>-0.004056441193792042</v>
       </c>
       <c r="C84">
-        <v>0.001841513667306228</v>
+        <v>0.01756046334247597</v>
       </c>
       <c r="D84">
-        <v>-0.004258939936714641</v>
+        <v>-0.04592006389700536</v>
       </c>
       <c r="E84">
-        <v>0.0004333339522550615</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01224778379145407</v>
+      </c>
+      <c r="F84">
+        <v>-0.02230279433735837</v>
+      </c>
+      <c r="G84">
+        <v>0.05251623126443113</v>
+      </c>
+      <c r="H84">
+        <v>0.01051084303131663</v>
+      </c>
+      <c r="I84">
+        <v>0.0536908135763246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1483732236732189</v>
+        <v>0.06081967141638975</v>
       </c>
       <c r="C85">
-        <v>-0.1325394729992526</v>
+        <v>0.1855231337553001</v>
       </c>
       <c r="D85">
-        <v>0.04109519746241629</v>
+        <v>0.08724016272570229</v>
       </c>
       <c r="E85">
-        <v>0.02986716342044085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0004304161640671681</v>
+      </c>
+      <c r="F85">
+        <v>-0.07666977467429284</v>
+      </c>
+      <c r="G85">
+        <v>0.03281677413517954</v>
+      </c>
+      <c r="H85">
+        <v>-0.001755236133257319</v>
+      </c>
+      <c r="I85">
+        <v>-0.07579393531507407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01318289719289165</v>
+        <v>0.009283517085741612</v>
       </c>
       <c r="C86">
-        <v>-0.01120445564391404</v>
+        <v>0.03019467951575516</v>
       </c>
       <c r="D86">
-        <v>-0.07492544846256166</v>
+        <v>-0.103980771948628</v>
       </c>
       <c r="E86">
-        <v>0.04736858317474328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03684689690519969</v>
+      </c>
+      <c r="F86">
+        <v>0.01032241335241895</v>
+      </c>
+      <c r="G86">
+        <v>-0.02279537718045264</v>
+      </c>
+      <c r="H86">
+        <v>0.01251311651268977</v>
+      </c>
+      <c r="I86">
+        <v>-0.08269699739850304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01595626442390993</v>
+        <v>0.008680505467192231</v>
       </c>
       <c r="C87">
-        <v>-0.0265082894629176</v>
+        <v>0.05371554761962739</v>
       </c>
       <c r="D87">
-        <v>-0.1309576040029769</v>
+        <v>-0.1452526340051226</v>
       </c>
       <c r="E87">
-        <v>0.04693067028387279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.002565487086380531</v>
+      </c>
+      <c r="F87">
+        <v>-0.03969991601980983</v>
+      </c>
+      <c r="G87">
+        <v>0.06243027389109639</v>
+      </c>
+      <c r="H87">
+        <v>0.02701397688372063</v>
+      </c>
+      <c r="I87">
+        <v>0.008407235432122285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0590380540884031</v>
+        <v>0.03030851080313838</v>
       </c>
       <c r="C88">
-        <v>-0.04435927037859305</v>
+        <v>0.06786796824534418</v>
       </c>
       <c r="D88">
-        <v>-0.02834414567595694</v>
+        <v>-0.006164794864517387</v>
       </c>
       <c r="E88">
-        <v>0.03001125728700168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01326480643586856</v>
+      </c>
+      <c r="F88">
+        <v>-0.02018063592612158</v>
+      </c>
+      <c r="G88">
+        <v>0.002172803923052081</v>
+      </c>
+      <c r="H88">
+        <v>0.02141957694299063</v>
+      </c>
+      <c r="I88">
+        <v>-0.01898254985047638</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3026653574826659</v>
+        <v>0.41185220580319</v>
       </c>
       <c r="C89">
-        <v>0.3476794261993196</v>
+        <v>-0.1640055383089375</v>
       </c>
       <c r="D89">
-        <v>-0.01403393017990804</v>
+        <v>-0.0226253360227241</v>
       </c>
       <c r="E89">
-        <v>0.09588943567142111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02509625560371385</v>
+      </c>
+      <c r="F89">
+        <v>-0.08449018301444945</v>
+      </c>
+      <c r="G89">
+        <v>0.06823423221884223</v>
+      </c>
+      <c r="H89">
+        <v>0.1518648595350575</v>
+      </c>
+      <c r="I89">
+        <v>0.2096590643013632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2407994466939977</v>
+        <v>0.3160106087950486</v>
       </c>
       <c r="C90">
-        <v>0.2554757321170807</v>
+        <v>-0.1103175650389125</v>
       </c>
       <c r="D90">
-        <v>-0.03452084942224787</v>
+        <v>-0.03317999580005115</v>
       </c>
       <c r="E90">
-        <v>-0.007250862637600393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01615330807987747</v>
+      </c>
+      <c r="F90">
+        <v>0.01777581219474079</v>
+      </c>
+      <c r="G90">
+        <v>0.05860247629088027</v>
+      </c>
+      <c r="H90">
+        <v>-0.03073126099309298</v>
+      </c>
+      <c r="I90">
+        <v>-0.07737168091019038</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1641597054346971</v>
+        <v>0.07055271971997959</v>
       </c>
       <c r="C91">
-        <v>-0.179544387278089</v>
+        <v>0.2130800298196533</v>
       </c>
       <c r="D91">
-        <v>0.09409526717969449</v>
+        <v>0.1043154052390563</v>
       </c>
       <c r="E91">
-        <v>0.09632393430622868</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0663889241738661</v>
+      </c>
+      <c r="F91">
+        <v>-0.06462484342534898</v>
+      </c>
+      <c r="G91">
+        <v>0.007218506289680672</v>
+      </c>
+      <c r="H91">
+        <v>-0.00124457233408999</v>
+      </c>
+      <c r="I91">
+        <v>-0.10324521915628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2250117320685641</v>
+        <v>0.3388409461185697</v>
       </c>
       <c r="C92">
-        <v>0.2714307213562455</v>
+        <v>-0.14407965241248</v>
       </c>
       <c r="D92">
-        <v>0.05401788041845786</v>
+        <v>0.004114603426097368</v>
       </c>
       <c r="E92">
-        <v>0.05069681697881234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06902403211201603</v>
+      </c>
+      <c r="F92">
+        <v>-0.0202298059658811</v>
+      </c>
+      <c r="G92">
+        <v>0.02387217412971582</v>
+      </c>
+      <c r="H92">
+        <v>0.03012136925361192</v>
+      </c>
+      <c r="I92">
+        <v>0.2409066472650974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2646502502125195</v>
+        <v>0.3343918159016235</v>
       </c>
       <c r="C93">
-        <v>0.2672031900402119</v>
+        <v>-0.1166927194434539</v>
       </c>
       <c r="D93">
-        <v>-0.0130793360402336</v>
+        <v>0.017211888283677</v>
       </c>
       <c r="E93">
-        <v>0.003169471907872627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.03225508727194749</v>
+      </c>
+      <c r="F93">
+        <v>-0.01409704661236116</v>
+      </c>
+      <c r="G93">
+        <v>-0.01645400298437125</v>
+      </c>
+      <c r="H93">
+        <v>0.00043073927408002</v>
+      </c>
+      <c r="I93">
+        <v>-0.06162128741751607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3115537295006386</v>
+        <v>0.137666259629981</v>
       </c>
       <c r="C94">
-        <v>-0.2554687015241395</v>
+        <v>0.3646283650320489</v>
       </c>
       <c r="D94">
-        <v>0.3564807652175943</v>
+        <v>0.3369452959453598</v>
       </c>
       <c r="E94">
-        <v>-0.200213810459217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04562080375702967</v>
+      </c>
+      <c r="F94">
+        <v>0.1122309424064979</v>
+      </c>
+      <c r="G94">
+        <v>0.3042173952383176</v>
+      </c>
+      <c r="H94">
+        <v>-0.0625569432449317</v>
+      </c>
+      <c r="I94">
+        <v>0.3421002009947572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01640476858107022</v>
+        <v>0.01813869296025549</v>
       </c>
       <c r="C95">
-        <v>-0.03507977032182343</v>
+        <v>0.05953732388135208</v>
       </c>
       <c r="D95">
-        <v>-0.03801590264668965</v>
+        <v>-0.1058160812689476</v>
       </c>
       <c r="E95">
-        <v>0.08280077676791631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1874573385574034</v>
+      </c>
+      <c r="F95">
+        <v>0.06855949681832721</v>
+      </c>
+      <c r="G95">
+        <v>-0.1046494002283275</v>
+      </c>
+      <c r="H95">
+        <v>0.3942686521906179</v>
+      </c>
+      <c r="I95">
+        <v>0.4558535287787649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0006453102355664327</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0006366055647703572</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0009798779214308291</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.00239154336047928</v>
+      </c>
+      <c r="F97">
+        <v>0.0005862913056141253</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005254220310939636</v>
+      </c>
+      <c r="H97">
+        <v>0.002769991298820813</v>
+      </c>
+      <c r="I97">
+        <v>0.002695286855155197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1518646011986748</v>
+        <v>0.1143238558321754</v>
       </c>
       <c r="C98">
-        <v>-0.07418290371930847</v>
+        <v>0.1432900244744012</v>
       </c>
       <c r="D98">
-        <v>-0.147836329810222</v>
+        <v>-0.06484167539555893</v>
       </c>
       <c r="E98">
-        <v>-0.1958184109868465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2626204449274536</v>
+      </c>
+      <c r="F98">
+        <v>0.1812368725667463</v>
+      </c>
+      <c r="G98">
+        <v>-0.2778964538137458</v>
+      </c>
+      <c r="H98">
+        <v>-0.1498886468045783</v>
+      </c>
+      <c r="I98">
+        <v>0.02229293718226656</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>9.019291323778964e-05</v>
+        <v>-0.002856130206821309</v>
       </c>
       <c r="C101">
-        <v>-0.02040922668953547</v>
+        <v>0.02907917412212052</v>
       </c>
       <c r="D101">
-        <v>-0.09656037390106682</v>
+        <v>-0.09938945674404023</v>
       </c>
       <c r="E101">
-        <v>0.01534222435464455</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03942840248897114</v>
+      </c>
+      <c r="F101">
+        <v>-0.03786966337511936</v>
+      </c>
+      <c r="G101">
+        <v>0.01423597470752738</v>
+      </c>
+      <c r="H101">
+        <v>0.1398993779233386</v>
+      </c>
+      <c r="I101">
+        <v>-0.02031491659835888</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1151768463179897</v>
+        <v>0.03371326597757716</v>
       </c>
       <c r="C102">
-        <v>-0.1503307134633038</v>
+        <v>0.1530808405247958</v>
       </c>
       <c r="D102">
-        <v>0.06638547107963964</v>
+        <v>0.09106828697306259</v>
       </c>
       <c r="E102">
-        <v>-0.04724543789410719</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02933261482505887</v>
+      </c>
+      <c r="F102">
+        <v>0.06764805509048177</v>
+      </c>
+      <c r="G102">
+        <v>-0.009014099291937</v>
+      </c>
+      <c r="H102">
+        <v>0.05011699341537249</v>
+      </c>
+      <c r="I102">
+        <v>-0.02376902339642906</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
